--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R208_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R208_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1869,10 +1881,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1916,28 +1928,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1962,28 +1974,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2883,10 +2895,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2930,28 +2942,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2976,28 +2988,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3172,10 +3184,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="J105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3219,28 +3231,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3265,28 +3277,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3548,10 +3560,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
+      <c r="J118" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K118" s="2" t="s">
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3595,28 +3607,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3641,28 +3653,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3779,10 +3791,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
+      <c r="J126" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
